--- a/with logs for unschedule with saturday sunday/excel_schedules/room_410_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_410_genetic_schedule.xlsx
@@ -588,7 +588,21 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>FM 423 - Financial Modeling
 3C
@@ -596,27 +610,13 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-    </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
+      <c r="B15" s="2" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -659,7 +659,14 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>AAC 419 - Advanced Accounting
 3C
@@ -667,20 +674,13 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-    </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
+      <c r="B23" s="2" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -712,8 +712,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
